--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt5a-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt5a-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Fzd8</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H2">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.569008</v>
+        <v>3.1851815</v>
       </c>
       <c r="N2">
-        <v>5.138016</v>
+        <v>6.370363</v>
       </c>
       <c r="O2">
-        <v>0.2577238367773512</v>
+        <v>0.4406530230187619</v>
       </c>
       <c r="P2">
-        <v>0.2133397199412101</v>
+        <v>0.3851702893788179</v>
       </c>
       <c r="Q2">
-        <v>11.866474024704</v>
+        <v>0.4001065741225</v>
       </c>
       <c r="R2">
-        <v>71.19884414822401</v>
+        <v>1.60042629649</v>
       </c>
       <c r="S2">
-        <v>0.2577238367773512</v>
+        <v>0.01166619480429055</v>
       </c>
       <c r="T2">
-        <v>0.2133397199412101</v>
+        <v>0.006858728635433408</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H3">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>6.130444</v>
       </c>
       <c r="O3">
-        <v>0.2050028063787905</v>
+        <v>0.2827048402157753</v>
       </c>
       <c r="P3">
-        <v>0.2545471259870097</v>
+        <v>0.3706641033643825</v>
       </c>
       <c r="Q3">
-        <v>9.439020105024001</v>
+        <v>0.2566919076866667</v>
       </c>
       <c r="R3">
-        <v>84.951180945216</v>
+        <v>1.54015144612</v>
       </c>
       <c r="S3">
-        <v>0.2050028063787905</v>
+        <v>0.007484550350929155</v>
       </c>
       <c r="T3">
-        <v>0.2545471259870097</v>
+        <v>0.006600416932397874</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H4">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01206</v>
+        <v>0.003928</v>
       </c>
       <c r="N4">
-        <v>0.03618</v>
+        <v>0.011784</v>
       </c>
       <c r="O4">
-        <v>0.001209863679496076</v>
+        <v>0.0005434180358066555</v>
       </c>
       <c r="P4">
-        <v>0.001502259056311421</v>
+        <v>0.0007124942001013113</v>
       </c>
       <c r="Q4">
-        <v>0.05570620128000001</v>
+        <v>0.00049341572</v>
       </c>
       <c r="R4">
-        <v>0.50135581152</v>
+        <v>0.00296049432</v>
       </c>
       <c r="S4">
-        <v>0.001209863679496076</v>
+        <v>1.438687660067512E-05</v>
       </c>
       <c r="T4">
-        <v>0.001502259056311421</v>
+        <v>1.268738661202623E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H5">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.2514585</v>
+        <v>1.9606995</v>
       </c>
       <c r="N5">
-        <v>6.502917</v>
+        <v>3.921399</v>
       </c>
       <c r="O5">
-        <v>0.3261875244227854</v>
+        <v>0.2712524111754306</v>
       </c>
       <c r="P5">
-        <v>0.2700128788195549</v>
+        <v>0.2370989514411984</v>
       </c>
       <c r="Q5">
-        <v>15.018772939848</v>
+        <v>0.2462932676925</v>
       </c>
       <c r="R5">
-        <v>90.11263763908801</v>
+        <v>0.98517307077</v>
       </c>
       <c r="S5">
-        <v>0.3261875244227854</v>
+        <v>0.007181349734599135</v>
       </c>
       <c r="T5">
-        <v>0.2700128788195549</v>
+        <v>0.00422202182391489</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H6">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.055205</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="N6">
-        <v>6.165615</v>
+        <v>0.085553</v>
       </c>
       <c r="O6">
-        <v>0.2061789289733609</v>
+        <v>0.003945268433245655</v>
       </c>
       <c r="P6">
-        <v>0.2560074895378535</v>
+        <v>0.005172778029639129</v>
       </c>
       <c r="Q6">
-        <v>9.493172753040001</v>
+        <v>0.003582246698333333</v>
       </c>
       <c r="R6">
-        <v>85.43855477736</v>
+        <v>0.02149348019</v>
       </c>
       <c r="S6">
-        <v>0.2061789289733609</v>
+        <v>0.0001044501403443277</v>
       </c>
       <c r="T6">
-        <v>0.2560074895378535</v>
+        <v>9.211167573138836E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,433 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.125615</v>
+      </c>
+      <c r="H7">
+        <v>0.25123</v>
+      </c>
+      <c r="I7">
+        <v>0.02647478672532295</v>
+      </c>
+      <c r="J7">
+        <v>0.01780700335556722</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.006513000000000001</v>
+      </c>
+      <c r="N7">
+        <v>0.019539</v>
+      </c>
+      <c r="O7">
+        <v>0.0009010391209798237</v>
+      </c>
+      <c r="P7">
+        <v>0.001181383585860448</v>
+      </c>
+      <c r="Q7">
+        <v>0.0008181304950000001</v>
+      </c>
+      <c r="R7">
+        <v>0.00490878297</v>
+      </c>
+      <c r="S7">
+        <v>2.38548185591133E-05</v>
+      </c>
+      <c r="T7">
+        <v>2.103690147762904E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>4.619088000000001</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>13.857264</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
+      <c r="I8">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J8">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.03685233333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.110557</v>
-      </c>
-      <c r="O7">
-        <v>0.003697039768215801</v>
-      </c>
-      <c r="P7">
-        <v>0.004590526658060303</v>
-      </c>
-      <c r="Q7">
-        <v>0.170224170672</v>
-      </c>
-      <c r="R7">
-        <v>1.532017536048</v>
-      </c>
-      <c r="S7">
-        <v>0.003697039768215801</v>
-      </c>
-      <c r="T7">
-        <v>0.004590526658060303</v>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.1851815</v>
+      </c>
+      <c r="N8">
+        <v>6.370363</v>
+      </c>
+      <c r="O8">
+        <v>0.4406530230187619</v>
+      </c>
+      <c r="P8">
+        <v>0.3851702893788179</v>
+      </c>
+      <c r="Q8">
+        <v>14.712633644472</v>
+      </c>
+      <c r="R8">
+        <v>88.27580186683201</v>
+      </c>
+      <c r="S8">
+        <v>0.4289868282144714</v>
+      </c>
+      <c r="T8">
+        <v>0.3783115607433845</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H9">
+        <v>13.857264</v>
+      </c>
+      <c r="I9">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J9">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.043481333333333</v>
+      </c>
+      <c r="N9">
+        <v>6.130444</v>
+      </c>
+      <c r="O9">
+        <v>0.2827048402157753</v>
+      </c>
+      <c r="P9">
+        <v>0.3706641033643825</v>
+      </c>
+      <c r="Q9">
+        <v>9.439020105024001</v>
+      </c>
+      <c r="R9">
+        <v>84.951180945216</v>
+      </c>
+      <c r="S9">
+        <v>0.2752202898648461</v>
+      </c>
+      <c r="T9">
+        <v>0.3640636864319846</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H10">
+        <v>13.857264</v>
+      </c>
+      <c r="I10">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J10">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.003928</v>
+      </c>
+      <c r="N10">
+        <v>0.011784</v>
+      </c>
+      <c r="O10">
+        <v>0.0005434180358066555</v>
+      </c>
+      <c r="P10">
+        <v>0.0007124942001013113</v>
+      </c>
+      <c r="Q10">
+        <v>0.018143777664</v>
+      </c>
+      <c r="R10">
+        <v>0.163293998976</v>
+      </c>
+      <c r="S10">
+        <v>0.0005290311592059804</v>
+      </c>
+      <c r="T10">
+        <v>0.0006998068134892851</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H11">
+        <v>13.857264</v>
+      </c>
+      <c r="I11">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J11">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.9606995</v>
+      </c>
+      <c r="N11">
+        <v>3.921399</v>
+      </c>
+      <c r="O11">
+        <v>0.2712524111754306</v>
+      </c>
+      <c r="P11">
+        <v>0.2370989514411984</v>
+      </c>
+      <c r="Q11">
+        <v>9.056643532056</v>
+      </c>
+      <c r="R11">
+        <v>54.339861192336</v>
+      </c>
+      <c r="S11">
+        <v>0.2640710614408315</v>
+      </c>
+      <c r="T11">
+        <v>0.2328769296172836</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H12">
+        <v>13.857264</v>
+      </c>
+      <c r="I12">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J12">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02851766666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.085553</v>
+      </c>
+      <c r="O12">
+        <v>0.003945268433245655</v>
+      </c>
+      <c r="P12">
+        <v>0.005172778029639129</v>
+      </c>
+      <c r="Q12">
+        <v>0.131725611888</v>
+      </c>
+      <c r="R12">
+        <v>1.185530506992</v>
+      </c>
+      <c r="S12">
+        <v>0.003840818292901327</v>
+      </c>
+      <c r="T12">
+        <v>0.005080666353907741</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H13">
+        <v>13.857264</v>
+      </c>
+      <c r="I13">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J13">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.006513000000000001</v>
+      </c>
+      <c r="N13">
+        <v>0.019539</v>
+      </c>
+      <c r="O13">
+        <v>0.0009010391209798237</v>
+      </c>
+      <c r="P13">
+        <v>0.001181383585860448</v>
+      </c>
+      <c r="Q13">
+        <v>0.03008412014400001</v>
+      </c>
+      <c r="R13">
+        <v>0.270757081296</v>
+      </c>
+      <c r="S13">
+        <v>0.0008771843024207105</v>
+      </c>
+      <c r="T13">
+        <v>0.001160346684382819</v>
       </c>
     </row>
   </sheetData>
